--- a/raw_data/alle_Anfragen_Beantwortungen/Beantwortungen/pdfs/2024-12-20_INR_12_beantwortet_19J/Beilage_5.xlsx
+++ b/raw_data/alle_Anfragen_Beantwortungen/Beantwortungen/pdfs/2024-12-20_INR_12_beantwortet_19J/Beilage_5.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\WU\WARRA\raw_data\alle_Anfragen_Beantwortungen\Beantwortungen\pdfs\2024-12-20_INR_12_beantwortet_19J\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D38562-7DD0-4621-8EEB-AB91C08A5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
+    <workbookView xWindow="22440" yWindow="-16335" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F3_2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -120,10 +137,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0\ &quot;KT&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0\ &quot;KT&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -211,19 +228,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -241,28 +257,28 @@
     <xf numFmtId="17" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -282,8 +298,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,7 +331,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1"/>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -380,7 +402,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -445,7 +473,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Textfeld 3"/>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -510,7 +544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -575,7 +615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5"/>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -640,7 +686,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Textfeld 6"/>
+        <xdr:cNvPr id="7" name="Textfeld 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -705,7 +757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Textfeld 7"/>
+        <xdr:cNvPr id="8" name="Textfeld 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -796,7 +854,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Textfeld 8"/>
+        <xdr:cNvPr id="9" name="Textfeld 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -871,7 +935,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Textfeld 9"/>
+        <xdr:cNvPr id="10" name="Textfeld 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1186,17 +1256,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
@@ -1205,583 +1275,582 @@
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="L3" s="3"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="L5" s="5"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G6" s="6"/>
-      <c r="L6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>44927</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>29</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>39</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="L8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>44958</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>48</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>56</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="L9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>44986</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>45</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>41</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="L10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45017</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>78</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>70</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="L11" s="3"/>
+      <c r="F11" s="13"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>45047</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>95</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>95</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>48</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45078</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>105</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>98</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>27</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>45108</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>102</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>97</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>15</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45139</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>108</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>123</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>17</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>45170</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>112</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>105</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>24</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45200</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>64</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>64</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>20</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>45231</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>48</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>48</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>34</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>45261</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>39</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>39</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>50</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15">
         <f>AVERAGE(D8:D19)</f>
         <v>72.75</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <f>AVERAGE(E8:E19)</f>
         <v>72.916666666666671</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <f>AVERAGE(F8:F19)</f>
         <v>29.375</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="6"/>
-      <c r="L21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="5"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G26" s="6"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>44927</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>72</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>45</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>44958</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>85</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>53</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>44986</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>84</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>69</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>45017</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>87</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>80</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>45047</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>92</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>97</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>45078</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>84</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>83</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>45108</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>63</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>78</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>45139</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>58</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>68</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>45170</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>60</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>63</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>45200</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>47</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>46</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>45231</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>25</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>25</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>45261</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>20</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>20</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <f>AVERAGE(E28:E39)</f>
         <v>60.583333333333336</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <f>AVERAGE(F28:F39)</f>
         <v>24.375</v>
       </c>
@@ -1790,255 +1859,255 @@
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="6"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="45" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G46" s="6"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>44927</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <v>42</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>17</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>44958</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>41</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>17</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>44986</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <v>49</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>17</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>45017</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>50</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>28</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>45047</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="10">
         <v>61</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>28</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>45078</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>60</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>35</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>45108</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="10">
         <v>55</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="11">
         <v>35</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="12">
         <v>45139</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>76</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>42</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>45170</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <v>81</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>42</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>45200</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>103</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>72</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>45231</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <v>78</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>78</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="12">
         <v>45261</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>89</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>89</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16">
+      <c r="C60" s="14"/>
+      <c r="D60" s="15">
         <f>AVERAGE(D48:D59)</f>
         <v>65.416666666666671</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <f>AVERAGE(E48:E59)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="15">
         <f>AVERAGE(F48:F59)</f>
         <v>14</v>
       </c>
@@ -2047,1534 +2116,1534 @@
       <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="6"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="65" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G66" s="6"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>44927</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <v>25</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>21</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>44958</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <v>25</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>29</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>44986</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <v>26</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>20</v>
       </c>
-      <c r="F70" s="12"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="12">
         <v>45017</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="13">
         <v>28</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="13">
         <v>15</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>45047</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <v>32</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>23</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="12">
         <v>45078</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="13">
         <v>27</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="13">
         <v>28</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>45108</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <v>24</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="11">
         <v>29</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <v>45139</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <v>28</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="13">
         <v>30</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>45170</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <v>35</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="11">
         <v>18</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="12">
         <v>45200</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <v>32</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="13">
         <v>32</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="13">
         <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>45231</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="10">
         <v>38</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="11">
         <v>38</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="12">
         <v>45261</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="13">
         <v>43</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="13">
         <v>43</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="13">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16">
+      <c r="C80" s="14"/>
+      <c r="D80" s="15">
         <f>AVERAGE(D68:D79)</f>
         <v>30.25</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="15">
         <f>AVERAGE(E68:E79)</f>
         <v>27.166666666666668</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="15">
         <f>AVERAGE(F68:F79)</f>
         <v>13.875</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="6"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="85" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G86" s="6"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="9">
         <v>44927</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="10">
         <v>27</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="11">
         <v>26</v>
       </c>
-      <c r="F88" s="12"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="12">
         <v>44958</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="13">
         <v>25</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="13">
         <v>25</v>
       </c>
-      <c r="F89" s="14"/>
+      <c r="F89" s="13"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>44986</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="10">
         <v>23</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="11">
         <v>21</v>
       </c>
-      <c r="F90" s="12"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="12">
         <v>45017</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="13">
         <v>21</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13">
         <v>24</v>
       </c>
-      <c r="F91" s="14"/>
+      <c r="F91" s="13"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="9">
         <v>45047</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="10">
         <v>27</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="11">
         <v>34</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="12">
         <v>45078</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="13">
         <v>35</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="13">
         <v>26</v>
       </c>
-      <c r="F93" s="14">
+      <c r="F93" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>45108</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="10">
         <v>25</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="11">
         <v>26</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="12">
         <v>45139</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="13">
         <v>21</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="13">
         <v>21</v>
       </c>
-      <c r="F95" s="14">
+      <c r="F95" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>45170</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="10">
         <v>14</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="11">
         <v>14</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="12">
         <v>45200</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="13">
         <v>15</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="13">
         <v>15</v>
       </c>
-      <c r="F97" s="14">
+      <c r="F97" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="9">
         <v>45231</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="10">
         <v>15</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="11">
         <v>15</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="12">
         <v>45261</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="13">
         <v>18</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="13">
         <v>18</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="13">
         <v>19</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="16">
+      <c r="C100" s="14"/>
+      <c r="D100" s="15">
         <f>AVERAGE(D88:D99)</f>
         <v>22.166666666666668</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="15">
         <f>AVERAGE(E88:E99)</f>
         <v>22.083333333333332</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="15">
         <f>AVERAGE(F88:F99)</f>
         <v>13.25</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="6"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="105" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G106" s="6"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="9">
         <v>44927</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="10">
         <v>71</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="11">
         <v>71</v>
       </c>
-      <c r="F108" s="12"/>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="12">
         <v>44958</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="13">
         <v>80</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="13">
         <v>80</v>
       </c>
-      <c r="F109" s="14"/>
+      <c r="F109" s="13"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="9">
         <v>44986</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="10">
         <v>86</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="11">
         <v>85</v>
       </c>
-      <c r="F110" s="12"/>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="12">
         <v>45017</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="13">
         <v>87</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="13">
         <v>87</v>
       </c>
-      <c r="F111" s="14"/>
+      <c r="F111" s="13"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="9">
         <v>45047</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="10">
         <v>95</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="11">
         <v>95</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="12">
         <v>45078</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="13">
         <v>105</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="13">
         <v>105</v>
       </c>
-      <c r="F113" s="14">
+      <c r="F113" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="9">
         <v>45108</v>
       </c>
-      <c r="D114" s="11">
+      <c r="D114" s="10">
         <v>102</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="11">
         <v>102</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="12">
         <v>45139</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="13">
         <v>112</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="13">
         <v>112</v>
       </c>
-      <c r="F115" s="14">
+      <c r="F115" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="9">
         <v>45170</v>
       </c>
-      <c r="D116" s="11">
+      <c r="D116" s="10">
         <v>106</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="11">
         <v>106</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="12">
         <v>45200</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="13">
         <v>100</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="13">
         <v>100</v>
       </c>
-      <c r="F117" s="14">
+      <c r="F117" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>45231</v>
       </c>
-      <c r="D118" s="11">
+      <c r="D118" s="10">
         <v>73</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="11">
         <v>73</v>
       </c>
-      <c r="F118" s="12">
+      <c r="F118" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="12">
         <v>45261</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="13">
         <v>81</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="13">
         <v>81</v>
       </c>
-      <c r="F119" s="14">
+      <c r="F119" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="16">
+      <c r="C120" s="14"/>
+      <c r="D120" s="15">
         <f>AVERAGE(D108:D119)</f>
         <v>91.5</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="15">
         <f>AVERAGE(E108:E119)</f>
         <v>91.416666666666671</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="15">
         <f>AVERAGE(F108:F119)</f>
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="19"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="6"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="125" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G126" s="6"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>44927</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="10">
         <v>61</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="11">
         <v>8</v>
       </c>
-      <c r="F128" s="12"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="12">
         <v>44958</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="13">
         <v>60</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="13">
         <v>21</v>
       </c>
-      <c r="F129" s="14"/>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="9">
         <v>44986</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="10">
         <v>58</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="11">
         <v>21</v>
       </c>
-      <c r="F130" s="12"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="12">
         <v>45017</v>
       </c>
-      <c r="D131" s="14">
+      <c r="D131" s="13">
         <v>61</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="13">
         <v>21</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="9">
         <v>45047</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D132" s="10">
         <v>63</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E132" s="11">
         <v>28</v>
       </c>
-      <c r="F132" s="18">
+      <c r="F132" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="12">
         <v>45078</v>
       </c>
-      <c r="D133" s="14">
+      <c r="D133" s="13">
         <v>65</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133" s="13">
         <v>28</v>
       </c>
-      <c r="F133" s="14">
+      <c r="F133" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="9">
         <v>45108</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="10">
         <v>67</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="11">
         <v>28</v>
       </c>
-      <c r="F134" s="18">
+      <c r="F134" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="12">
         <v>45139</v>
       </c>
-      <c r="D135" s="14">
+      <c r="D135" s="13">
         <v>69</v>
       </c>
-      <c r="E135" s="14">
+      <c r="E135" s="13">
         <v>28</v>
       </c>
-      <c r="F135" s="14">
+      <c r="F135" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="9">
         <v>45170</v>
       </c>
-      <c r="D136" s="11">
+      <c r="D136" s="10">
         <v>67</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E136" s="11">
         <v>28</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="12">
         <v>45200</v>
       </c>
-      <c r="D137" s="14">
+      <c r="D137" s="13">
         <v>56</v>
       </c>
-      <c r="E137" s="14">
+      <c r="E137" s="13">
         <v>56</v>
       </c>
-      <c r="F137" s="14">
+      <c r="F137" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="9">
         <v>45231</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="10">
         <v>44</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E138" s="11">
         <v>44</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F138" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="12">
         <v>45261</v>
       </c>
-      <c r="D139" s="14">
+      <c r="D139" s="13">
         <v>30</v>
       </c>
-      <c r="E139" s="14">
+      <c r="E139" s="13">
         <v>30</v>
       </c>
-      <c r="F139" s="14">
+      <c r="F139" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="16">
+      <c r="C140" s="14"/>
+      <c r="D140" s="15">
         <f>AVERAGE(D128:D139)</f>
         <v>58.416666666666664</v>
       </c>
-      <c r="E140" s="16">
+      <c r="E140" s="15">
         <f>AVERAGE(E128:E139)</f>
         <v>28.416666666666668</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="15">
         <f>AVERAGE(F128:F139)</f>
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="19"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="6"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="145" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
-      <c r="J145" s="22"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G146" s="6"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C148" s="9">
         <v>44927</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="10">
         <v>42</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E148" s="11">
         <v>42</v>
       </c>
-      <c r="F148" s="12"/>
+      <c r="F148" s="11"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="13">
+      <c r="C149" s="12">
         <v>44958</v>
       </c>
-      <c r="D149" s="14">
+      <c r="D149" s="13">
         <v>56</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149" s="13">
         <v>56</v>
       </c>
-      <c r="F149" s="14"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="9">
         <v>44986</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="10">
         <v>70</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="11">
         <v>70</v>
       </c>
-      <c r="F150" s="12"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="12">
         <v>45017</v>
       </c>
-      <c r="D151" s="14">
+      <c r="D151" s="13">
         <v>77</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="13">
         <v>77</v>
       </c>
-      <c r="F151" s="14"/>
+      <c r="F151" s="13"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C152" s="9">
         <v>45047</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="10">
         <v>77</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="11">
         <v>77</v>
       </c>
-      <c r="F152" s="12"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="12">
         <v>45078</v>
       </c>
-      <c r="D153" s="14">
+      <c r="D153" s="13">
         <v>84</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153" s="13">
         <v>84</v>
       </c>
-      <c r="F153" s="14"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="9">
         <v>45108</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="10">
         <v>84</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="11">
         <v>84</v>
       </c>
-      <c r="F154" s="12"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C155" s="13">
+      <c r="C155" s="12">
         <v>45139</v>
       </c>
-      <c r="D155" s="14">
+      <c r="D155" s="13">
         <v>77</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155" s="13">
         <v>77</v>
       </c>
-      <c r="F155" s="14"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="9">
         <v>45170</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="10">
         <v>77</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="11">
         <v>77</v>
       </c>
-      <c r="F156" s="12"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C157" s="13">
+      <c r="C157" s="12">
         <v>45200</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="13">
         <v>63</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="13">
         <v>63</v>
       </c>
-      <c r="F157" s="14"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>45231</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="10">
         <v>63</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="11">
         <v>63</v>
       </c>
-      <c r="F158" s="12"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C159" s="13">
+      <c r="C159" s="12">
         <v>45261</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="13">
         <v>77</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="13">
         <v>77</v>
       </c>
-      <c r="F159" s="14"/>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="16">
+      <c r="C160" s="14"/>
+      <c r="D160" s="15">
         <f>AVERAGE(D148:D159)</f>
         <v>70.583333333333329</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="15">
         <f>AVERAGE(E148:E159)</f>
         <v>70.583333333333329</v>
       </c>
-      <c r="F160" s="16"/>
+      <c r="F160" s="15"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="19"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="6"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="165" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
-      <c r="J165" s="22"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G166" s="6"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="9">
         <v>44927</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="10">
         <v>50</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="11">
         <v>48</v>
       </c>
-      <c r="F168" s="12"/>
+      <c r="F168" s="11"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C169" s="13">
+      <c r="C169" s="12">
         <v>44958</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="13">
         <v>48</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169" s="13">
         <v>48</v>
       </c>
-      <c r="F169" s="14"/>
+      <c r="F169" s="13"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C170" s="9">
         <v>44986</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="10">
         <v>48</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="11">
         <v>42</v>
       </c>
-      <c r="F170" s="12"/>
+      <c r="F170" s="11"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="13">
+      <c r="C171" s="12">
         <v>45017</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="13">
         <v>54</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171" s="13">
         <v>46</v>
       </c>
-      <c r="F171" s="14"/>
+      <c r="F171" s="13"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="9">
         <v>45047</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="10">
         <v>52</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="11">
         <v>55</v>
       </c>
-      <c r="F172" s="12" t="s">
+      <c r="F172" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C173" s="13">
+      <c r="C173" s="12">
         <v>45078</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="13">
         <v>62</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173" s="13">
         <v>62</v>
       </c>
-      <c r="F173" s="14" t="s">
+      <c r="F173" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C174" s="9">
         <v>45108</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="10">
         <v>61</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="11">
         <v>62</v>
       </c>
-      <c r="F174" s="12">
+      <c r="F174" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C175" s="13">
+      <c r="C175" s="12">
         <v>45139</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175" s="13">
         <v>63</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="13">
         <v>57</v>
       </c>
-      <c r="F175" s="14">
+      <c r="F175" s="13">
         <v>49</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C176" s="10">
+      <c r="C176" s="9">
         <v>45170</v>
       </c>
-      <c r="D176" s="11">
+      <c r="D176" s="10">
         <v>63</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="11">
         <v>59</v>
       </c>
-      <c r="F176" s="12">
+      <c r="F176" s="11">
         <v>69</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C177" s="13">
+      <c r="C177" s="12">
         <v>45200</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177" s="13">
         <v>47</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="13">
         <v>49</v>
       </c>
-      <c r="F177" s="14">
+      <c r="F177" s="13">
         <v>42</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="10">
+      <c r="C178" s="9">
         <v>45231</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="10">
         <v>47</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="11">
         <v>47</v>
       </c>
-      <c r="F178" s="12">
+      <c r="F178" s="11">
         <v>38</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C179" s="13">
+      <c r="C179" s="12">
         <v>45261</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179" s="13">
         <v>48</v>
       </c>
-      <c r="E179" s="14">
+      <c r="E179" s="13">
         <v>48</v>
       </c>
-      <c r="F179" s="14">
+      <c r="F179" s="13">
         <v>46</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C180" s="15"/>
-      <c r="D180" s="16">
+      <c r="C180" s="14"/>
+      <c r="D180" s="15">
         <f>AVERAGE(D168:D179)</f>
         <v>53.583333333333336</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="15">
         <f>AVERAGE(E168:E179)</f>
         <v>51.916666666666664</v>
       </c>
-      <c r="F180" s="16">
+      <c r="F180" s="15">
         <f>AVERAGE(F168:F179)</f>
         <v>43.5</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C181" s="19"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="6"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/raw_data/alle_Anfragen_Beantwortungen/Beantwortungen/pdfs/2024-12-20_INR_12_beantwortet_19J/Beilage_5.xlsx
+++ b/raw_data/alle_Anfragen_Beantwortungen/Beantwortungen/pdfs/2024-12-20_INR_12_beantwortet_19J/Beilage_5.xlsx
@@ -1,35 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\WU\WARRA\raw_data\alle_Anfragen_Beantwortungen\Beantwortungen\pdfs\2024-12-20_INR_12_beantwortet_19J\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D38562-7DD0-4621-8EEB-AB91C08A5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="-16335" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="F3_2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,10 +120,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0\ &quot;KT&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;KT&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -228,18 +211,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -257,28 +241,28 @@
     <xf numFmtId="17" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -298,8 +282,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,13 +315,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Textfeld 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Textfeld 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -402,13 +380,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -473,13 +445,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Textfeld 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Textfeld 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -544,13 +510,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Textfeld 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Textfeld 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -615,13 +575,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Textfeld 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -686,13 +640,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Textfeld 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Textfeld 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -757,13 +705,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Textfeld 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Textfeld 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -854,13 +796,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Textfeld 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Textfeld 8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -935,13 +871,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Textfeld 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Textfeld 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1256,17 +1186,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:L181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
@@ -1275,582 +1205,583 @@
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="L5" s="4"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G6" s="5"/>
-      <c r="L6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>44927</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>29</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>39</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="L8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>44958</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>48</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>56</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="L9" s="4"/>
+      <c r="F9" s="14"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>44986</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>45</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>41</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="L10" s="4"/>
+      <c r="F10" s="12"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>45017</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>78</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>70</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="L11" s="2"/>
+      <c r="F11" s="14"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>45047</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>95</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="12">
         <v>95</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>48</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>45078</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>105</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>98</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="14">
         <v>27</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>45108</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>102</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>97</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>15</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>45139</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>108</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>123</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="14">
         <v>17</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>45170</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>112</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>105</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="12">
         <v>24</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>45200</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>64</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <v>64</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="14">
         <v>20</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>45231</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="11">
         <v>48</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>48</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="12">
         <v>34</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>45261</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="14">
         <v>39</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="14">
         <v>39</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="14">
         <v>50</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16">
         <f>AVERAGE(D8:D19)</f>
         <v>72.75</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="16">
         <f>AVERAGE(E8:E19)</f>
         <v>72.916666666666671</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="16">
         <f>AVERAGE(F8:F19)</f>
         <v>29.375</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="5"/>
-      <c r="L21" s="4"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="6"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>44927</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <v>72</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="12">
         <v>45</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>44958</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="14">
         <v>85</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="14">
         <v>53</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>44986</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <v>84</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>69</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>45017</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="14">
         <v>87</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="14">
         <v>80</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>45047</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="11">
         <v>92</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="12">
         <v>97</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="12">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>45078</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="14">
         <v>84</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="14">
         <v>83</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="14">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>45108</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <v>63</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <v>78</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>45139</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="14">
         <v>58</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="14">
         <v>68</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>45170</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <v>60</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="12">
         <v>63</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="13">
         <v>45200</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="14">
         <v>47</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="14">
         <v>46</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>45231</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
         <v>25</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="12">
         <v>25</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="13">
         <v>45261</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="14">
         <v>20</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="14">
         <v>20</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="16">
         <f>AVERAGE(E28:E39)</f>
         <v>60.583333333333336</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="16">
         <f>AVERAGE(F28:F39)</f>
         <v>24.375</v>
       </c>
@@ -1859,255 +1790,255 @@
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="5"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="45" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G46" s="5"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>44927</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="11">
         <v>42</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="12">
         <v>17</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="13">
         <v>44958</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="14">
         <v>41</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="14">
         <v>17</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="10">
         <v>44986</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <v>49</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="12">
         <v>17</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="13">
         <v>45017</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="14">
         <v>50</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="14">
         <v>28</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>45047</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="11">
         <v>61</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="12">
         <v>28</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="13">
         <v>45078</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="14">
         <v>60</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="14">
         <v>35</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="10">
         <v>45108</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="11">
         <v>55</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="12">
         <v>35</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="13">
         <v>45139</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="14">
         <v>76</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="14">
         <v>42</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="10">
         <v>45170</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="11">
         <v>81</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="12">
         <v>42</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="13">
         <v>45200</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="14">
         <v>103</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="14">
         <v>72</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="10">
         <v>45231</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <v>78</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="12">
         <v>78</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="13">
         <v>45261</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="14">
         <v>89</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="14">
         <v>89</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15">
+      <c r="C60" s="15"/>
+      <c r="D60" s="16">
         <f>AVERAGE(D48:D59)</f>
         <v>65.416666666666671</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="16">
         <f>AVERAGE(E48:E59)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="16">
         <f>AVERAGE(F48:F59)</f>
         <v>14</v>
       </c>
@@ -2116,1534 +2047,1534 @@
       <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="5"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="65" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G66" s="5"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="10">
         <v>44927</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="11">
         <v>25</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="12">
         <v>21</v>
       </c>
-      <c r="F68" s="11"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="13">
         <v>44958</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="14">
         <v>25</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="14">
         <v>29</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="10">
         <v>44986</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="11">
         <v>26</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="12">
         <v>20</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="13">
         <v>45017</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="14">
         <v>28</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="14">
         <v>15</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="10">
         <v>45047</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <v>32</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="12">
         <v>23</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="13">
         <v>45078</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D73" s="14">
         <v>27</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="14">
         <v>28</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>45108</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <v>24</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="12">
         <v>29</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="13">
         <v>45139</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D75" s="14">
         <v>28</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="14">
         <v>30</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="10">
         <v>45170</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="11">
         <v>35</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="12">
         <v>18</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="13">
         <v>45200</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D77" s="14">
         <v>32</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="14">
         <v>32</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="14">
         <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="10">
         <v>45231</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="11">
         <v>38</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="12">
         <v>38</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="13">
         <v>45261</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="14">
         <v>43</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="14">
         <v>43</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15">
+      <c r="C80" s="15"/>
+      <c r="D80" s="16">
         <f>AVERAGE(D68:D79)</f>
         <v>30.25</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="16">
         <f>AVERAGE(E68:E79)</f>
         <v>27.166666666666668</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="16">
         <f>AVERAGE(F68:F79)</f>
         <v>13.875</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="5"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="85" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G86" s="5"/>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="10">
         <v>44927</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="11">
         <v>27</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="12">
         <v>26</v>
       </c>
-      <c r="F88" s="11"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="13">
         <v>44958</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="14">
         <v>25</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="14">
         <v>25</v>
       </c>
-      <c r="F89" s="13"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="10">
         <v>44986</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="11">
         <v>23</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="12">
         <v>21</v>
       </c>
-      <c r="F90" s="11"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="13">
         <v>45017</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="14">
         <v>21</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="14">
         <v>24</v>
       </c>
-      <c r="F91" s="13"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="10">
         <v>45047</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="11">
         <v>27</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="12">
         <v>34</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="13">
         <v>45078</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="14">
         <v>35</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="14">
         <v>26</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="10">
         <v>45108</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="11">
         <v>25</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="12">
         <v>26</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="13">
         <v>45139</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="14">
         <v>21</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="14">
         <v>21</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="10">
         <v>45170</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="11">
         <v>14</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="12">
         <v>14</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="13">
         <v>45200</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D97" s="14">
         <v>15</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="14">
         <v>15</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="10">
         <v>45231</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="11">
         <v>15</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="12">
         <v>15</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="13">
         <v>45261</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="14">
         <v>18</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="14">
         <v>18</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="14">
         <v>19</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15">
+      <c r="C100" s="15"/>
+      <c r="D100" s="16">
         <f>AVERAGE(D88:D99)</f>
         <v>22.166666666666668</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="16">
         <f>AVERAGE(E88:E99)</f>
         <v>22.083333333333332</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F100" s="16">
         <f>AVERAGE(F88:F99)</f>
         <v>13.25</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="5"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="6"/>
     </row>
     <row r="105" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G106" s="5"/>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="10">
         <v>44927</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="11">
         <v>71</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="12">
         <v>71</v>
       </c>
-      <c r="F108" s="11"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="13">
         <v>44958</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="14">
         <v>80</v>
       </c>
-      <c r="E109" s="13">
+      <c r="E109" s="14">
         <v>80</v>
       </c>
-      <c r="F109" s="13"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="10">
         <v>44986</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="11">
         <v>86</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="12">
         <v>85</v>
       </c>
-      <c r="F110" s="11"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="13">
         <v>45017</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="14">
         <v>87</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="14">
         <v>87</v>
       </c>
-      <c r="F111" s="13"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="10">
         <v>45047</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="11">
         <v>95</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="12">
         <v>95</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="13">
         <v>45078</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="14">
         <v>105</v>
       </c>
-      <c r="E113" s="13">
+      <c r="E113" s="14">
         <v>105</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="10">
         <v>45108</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="11">
         <v>102</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="12">
         <v>102</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="13">
         <v>45139</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="14">
         <v>112</v>
       </c>
-      <c r="E115" s="13">
+      <c r="E115" s="14">
         <v>112</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="10">
         <v>45170</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="11">
         <v>106</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="12">
         <v>106</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="13">
         <v>45200</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="14">
         <v>100</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="14">
         <v>100</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="10">
         <v>45231</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="11">
         <v>73</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="12">
         <v>73</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="13">
         <v>45261</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D119" s="14">
         <v>81</v>
       </c>
-      <c r="E119" s="13">
+      <c r="E119" s="14">
         <v>81</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15">
+      <c r="C120" s="15"/>
+      <c r="D120" s="16">
         <f>AVERAGE(D108:D119)</f>
         <v>91.5</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="16">
         <f>AVERAGE(E108:E119)</f>
         <v>91.416666666666671</v>
       </c>
-      <c r="F120" s="15">
+      <c r="F120" s="16">
         <f>AVERAGE(F108:F119)</f>
         <v>14</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="20" t="s">
+      <c r="B121" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="5"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="6"/>
     </row>
     <row r="125" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="21" t="s">
+      <c r="B125" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G126" s="5"/>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="10">
         <v>44927</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="11">
         <v>61</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="12">
         <v>8</v>
       </c>
-      <c r="F128" s="11"/>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="13">
         <v>44958</v>
       </c>
-      <c r="D129" s="13">
+      <c r="D129" s="14">
         <v>60</v>
       </c>
-      <c r="E129" s="13">
+      <c r="E129" s="14">
         <v>21</v>
       </c>
-      <c r="F129" s="13"/>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="10">
         <v>44986</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="11">
         <v>58</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="12">
         <v>21</v>
       </c>
-      <c r="F130" s="11"/>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="13">
         <v>45017</v>
       </c>
-      <c r="D131" s="13">
+      <c r="D131" s="14">
         <v>61</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="14">
         <v>21</v>
       </c>
-      <c r="F131" s="13"/>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="10">
         <v>45047</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="11">
         <v>63</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="12">
         <v>28</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F132" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="13">
         <v>45078</v>
       </c>
-      <c r="D133" s="13">
+      <c r="D133" s="14">
         <v>65</v>
       </c>
-      <c r="E133" s="13">
+      <c r="E133" s="14">
         <v>28</v>
       </c>
-      <c r="F133" s="13">
+      <c r="F133" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="10">
         <v>45108</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="11">
         <v>67</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="12">
         <v>28</v>
       </c>
-      <c r="F134" s="17">
+      <c r="F134" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="13">
         <v>45139</v>
       </c>
-      <c r="D135" s="13">
+      <c r="D135" s="14">
         <v>69</v>
       </c>
-      <c r="E135" s="13">
+      <c r="E135" s="14">
         <v>28</v>
       </c>
-      <c r="F135" s="13">
+      <c r="F135" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="10">
         <v>45170</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="11">
         <v>67</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="12">
         <v>28</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="13">
         <v>45200</v>
       </c>
-      <c r="D137" s="13">
+      <c r="D137" s="14">
         <v>56</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="14">
         <v>56</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="10">
         <v>45231</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="11">
         <v>44</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="12">
         <v>44</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="13">
         <v>45261</v>
       </c>
-      <c r="D139" s="13">
+      <c r="D139" s="14">
         <v>30</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E139" s="14">
         <v>30</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="15">
+      <c r="C140" s="15"/>
+      <c r="D140" s="16">
         <f>AVERAGE(D128:D139)</f>
         <v>58.416666666666664</v>
       </c>
-      <c r="E140" s="15">
+      <c r="E140" s="16">
         <f>AVERAGE(E128:E139)</f>
         <v>28.416666666666668</v>
       </c>
-      <c r="F140" s="15">
+      <c r="F140" s="16">
         <f>AVERAGE(F128:F139)</f>
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="5"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="6"/>
     </row>
     <row r="145" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G146" s="5"/>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="10">
         <v>44927</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="11">
         <v>42</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="12">
         <v>42</v>
       </c>
-      <c r="F148" s="11"/>
+      <c r="F148" s="12"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="13">
         <v>44958</v>
       </c>
-      <c r="D149" s="13">
+      <c r="D149" s="14">
         <v>56</v>
       </c>
-      <c r="E149" s="13">
+      <c r="E149" s="14">
         <v>56</v>
       </c>
-      <c r="F149" s="13"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="10">
         <v>44986</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="11">
         <v>70</v>
       </c>
-      <c r="E150" s="11">
+      <c r="E150" s="12">
         <v>70</v>
       </c>
-      <c r="F150" s="11"/>
+      <c r="F150" s="12"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="13">
         <v>45017</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="14">
         <v>77</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="14">
         <v>77</v>
       </c>
-      <c r="F151" s="13"/>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="10">
         <v>45047</v>
       </c>
-      <c r="D152" s="10">
+      <c r="D152" s="11">
         <v>77</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="12">
         <v>77</v>
       </c>
-      <c r="F152" s="11"/>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="13">
         <v>45078</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="14">
         <v>84</v>
       </c>
-      <c r="E153" s="13">
+      <c r="E153" s="14">
         <v>84</v>
       </c>
-      <c r="F153" s="13"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="10">
         <v>45108</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="11">
         <v>84</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="12">
         <v>84</v>
       </c>
-      <c r="F154" s="11"/>
+      <c r="F154" s="12"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="13">
         <v>45139</v>
       </c>
-      <c r="D155" s="13">
+      <c r="D155" s="14">
         <v>77</v>
       </c>
-      <c r="E155" s="13">
+      <c r="E155" s="14">
         <v>77</v>
       </c>
-      <c r="F155" s="13"/>
+      <c r="F155" s="14"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="10">
         <v>45170</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="11">
         <v>77</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="12">
         <v>77</v>
       </c>
-      <c r="F156" s="11"/>
+      <c r="F156" s="12"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="13">
         <v>45200</v>
       </c>
-      <c r="D157" s="13">
+      <c r="D157" s="14">
         <v>63</v>
       </c>
-      <c r="E157" s="13">
+      <c r="E157" s="14">
         <v>63</v>
       </c>
-      <c r="F157" s="13"/>
+      <c r="F157" s="14"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="10">
         <v>45231</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158" s="11">
         <v>63</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="12">
         <v>63</v>
       </c>
-      <c r="F158" s="11"/>
+      <c r="F158" s="12"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="13">
         <v>45261</v>
       </c>
-      <c r="D159" s="13">
+      <c r="D159" s="14">
         <v>77</v>
       </c>
-      <c r="E159" s="13">
+      <c r="E159" s="14">
         <v>77</v>
       </c>
-      <c r="F159" s="13"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="15">
+      <c r="C160" s="15"/>
+      <c r="D160" s="16">
         <f>AVERAGE(D148:D159)</f>
         <v>70.583333333333329</v>
       </c>
-      <c r="E160" s="15">
+      <c r="E160" s="16">
         <f>AVERAGE(E148:E159)</f>
         <v>70.583333333333329</v>
       </c>
-      <c r="F160" s="15"/>
+      <c r="F160" s="16"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="18"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="5"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="6"/>
     </row>
     <row r="165" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="21" t="s">
+      <c r="B165" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-      <c r="J165" s="21"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G166" s="5"/>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="10">
         <v>44927</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D168" s="11">
         <v>50</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="12">
         <v>48</v>
       </c>
-      <c r="F168" s="11"/>
+      <c r="F168" s="12"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="13">
         <v>44958</v>
       </c>
-      <c r="D169" s="13">
+      <c r="D169" s="14">
         <v>48</v>
       </c>
-      <c r="E169" s="13">
+      <c r="E169" s="14">
         <v>48</v>
       </c>
-      <c r="F169" s="13"/>
+      <c r="F169" s="14"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="10">
         <v>44986</v>
       </c>
-      <c r="D170" s="10">
+      <c r="D170" s="11">
         <v>48</v>
       </c>
-      <c r="E170" s="11">
+      <c r="E170" s="12">
         <v>42</v>
       </c>
-      <c r="F170" s="11"/>
+      <c r="F170" s="12"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="13">
         <v>45017</v>
       </c>
-      <c r="D171" s="13">
+      <c r="D171" s="14">
         <v>54</v>
       </c>
-      <c r="E171" s="13">
+      <c r="E171" s="14">
         <v>46</v>
       </c>
-      <c r="F171" s="13"/>
+      <c r="F171" s="14"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="10">
         <v>45047</v>
       </c>
-      <c r="D172" s="10">
+      <c r="D172" s="11">
         <v>52</v>
       </c>
-      <c r="E172" s="11">
+      <c r="E172" s="12">
         <v>55</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="13">
         <v>45078</v>
       </c>
-      <c r="D173" s="13">
+      <c r="D173" s="14">
         <v>62</v>
       </c>
-      <c r="E173" s="13">
+      <c r="E173" s="14">
         <v>62</v>
       </c>
-      <c r="F173" s="13" t="s">
+      <c r="F173" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="10">
         <v>45108</v>
       </c>
-      <c r="D174" s="10">
+      <c r="D174" s="11">
         <v>61</v>
       </c>
-      <c r="E174" s="11">
+      <c r="E174" s="12">
         <v>62</v>
       </c>
-      <c r="F174" s="11">
+      <c r="F174" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="13">
         <v>45139</v>
       </c>
-      <c r="D175" s="13">
+      <c r="D175" s="14">
         <v>63</v>
       </c>
-      <c r="E175" s="13">
+      <c r="E175" s="14">
         <v>57</v>
       </c>
-      <c r="F175" s="13">
+      <c r="F175" s="14">
         <v>49</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="10">
         <v>45170</v>
       </c>
-      <c r="D176" s="10">
+      <c r="D176" s="11">
         <v>63</v>
       </c>
-      <c r="E176" s="11">
+      <c r="E176" s="12">
         <v>59</v>
       </c>
-      <c r="F176" s="11">
+      <c r="F176" s="12">
         <v>69</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="13">
         <v>45200</v>
       </c>
-      <c r="D177" s="13">
+      <c r="D177" s="14">
         <v>47</v>
       </c>
-      <c r="E177" s="13">
+      <c r="E177" s="14">
         <v>49</v>
       </c>
-      <c r="F177" s="13">
+      <c r="F177" s="14">
         <v>42</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="10">
         <v>45231</v>
       </c>
-      <c r="D178" s="10">
+      <c r="D178" s="11">
         <v>47</v>
       </c>
-      <c r="E178" s="11">
+      <c r="E178" s="12">
         <v>47</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="12">
         <v>38</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C179" s="12">
+      <c r="C179" s="13">
         <v>45261</v>
       </c>
-      <c r="D179" s="13">
+      <c r="D179" s="14">
         <v>48</v>
       </c>
-      <c r="E179" s="13">
+      <c r="E179" s="14">
         <v>48</v>
       </c>
-      <c r="F179" s="13">
+      <c r="F179" s="14">
         <v>46</v>
       </c>
     </row>
     <row r="180" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C180" s="14"/>
-      <c r="D180" s="15">
+      <c r="C180" s="15"/>
+      <c r="D180" s="16">
         <f>AVERAGE(D168:D179)</f>
         <v>53.583333333333336</v>
       </c>
-      <c r="E180" s="15">
+      <c r="E180" s="16">
         <f>AVERAGE(E168:E179)</f>
         <v>51.916666666666664</v>
       </c>
-      <c r="F180" s="15">
+      <c r="F180" s="16">
         <f>AVERAGE(F168:F179)</f>
         <v>43.5</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C181" s="18"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="5"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
